--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130803040</v>
       </c>
       <c r="B2" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -773,10 +773,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130803039</v>
+        <v>130803083</v>
       </c>
       <c r="B3" t="n">
-        <v>83219</v>
+        <v>83089</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,21 +784,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>424963</v>
+        <v>424802</v>
       </c>
       <c r="R3" t="n">
-        <v>6712076</v>
+        <v>6712148</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130803083</v>
+        <v>130803092</v>
       </c>
       <c r="B4" t="n">
-        <v>83085</v>
+        <v>89193</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,21 +881,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1312</v>
+        <v>510</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424802</v>
+        <v>424832</v>
       </c>
       <c r="R4" t="n">
-        <v>6712148</v>
+        <v>6712186</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130803092</v>
+        <v>130803039</v>
       </c>
       <c r="B5" t="n">
-        <v>89189</v>
+        <v>83223</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,21 +978,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>510</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>424832</v>
+        <v>424963</v>
       </c>
       <c r="R5" t="n">
-        <v>6712186</v>
+        <v>6712076</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130803069</v>
+        <v>130803067</v>
       </c>
       <c r="B6" t="n">
-        <v>81224</v>
+        <v>78255</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1049</v>
+        <v>228579</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>424815</v>
+        <v>424814</v>
       </c>
       <c r="R6" t="n">
-        <v>6712165</v>
+        <v>6712361</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803088</v>
+        <v>130803064</v>
       </c>
       <c r="B7" t="n">
-        <v>83085</v>
+        <v>91829</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,21 +1172,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>5442</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424964</v>
+        <v>424893</v>
       </c>
       <c r="R7" t="n">
-        <v>6712067</v>
+        <v>6712101</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1258,32 +1258,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803042</v>
+        <v>130803069</v>
       </c>
       <c r="B8" t="n">
-        <v>91767</v>
+        <v>81228</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>1049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424979</v>
+        <v>424815</v>
       </c>
       <c r="R8" t="n">
-        <v>6712092</v>
+        <v>6712165</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1355,32 +1355,32 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130803071</v>
+        <v>130803088</v>
       </c>
       <c r="B9" t="n">
-        <v>91177</v>
+        <v>83089</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5685</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424873</v>
+        <v>424964</v>
       </c>
       <c r="R9" t="n">
-        <v>6712126</v>
+        <v>6712067</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1452,32 +1452,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130803064</v>
+        <v>130803042</v>
       </c>
       <c r="B10" t="n">
-        <v>91825</v>
+        <v>91771</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5442</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>424893</v>
+        <v>424979</v>
       </c>
       <c r="R10" t="n">
-        <v>6712101</v>
+        <v>6712092</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1549,32 +1549,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130803067</v>
+        <v>130803071</v>
       </c>
       <c r="B11" t="n">
-        <v>78251</v>
+        <v>91181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228579</v>
+        <v>5685</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>424814</v>
+        <v>424873</v>
       </c>
       <c r="R11" t="n">
-        <v>6712361</v>
+        <v>6712126</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1649,7 +1649,7 @@
         <v>130803085</v>
       </c>
       <c r="B12" t="n">
-        <v>83085</v>
+        <v>83089</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>130803066</v>
       </c>
       <c r="B13" t="n">
-        <v>75217</v>
+        <v>75221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1840,32 +1840,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130803074</v>
+        <v>130803041</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>91771</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>424801</v>
+        <v>424881</v>
       </c>
       <c r="R14" t="n">
-        <v>6712403</v>
+        <v>6712113</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -1937,32 +1937,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130803041</v>
+        <v>130803074</v>
       </c>
       <c r="B15" t="n">
-        <v>91767</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>424881</v>
+        <v>424801</v>
       </c>
       <c r="R15" t="n">
-        <v>6712113</v>
+        <v>6712403</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2037,7 +2037,7 @@
         <v>130803065</v>
       </c>
       <c r="B16" t="n">
-        <v>91754</v>
+        <v>91758</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>130803084</v>
       </c>
       <c r="B17" t="n">
-        <v>83085</v>
+        <v>83089</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>130803036</v>
       </c>
       <c r="B18" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>130803073</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>130803096</v>
       </c>
       <c r="B20" t="n">
-        <v>83211</v>
+        <v>83215</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>130803093</v>
       </c>
       <c r="B21" t="n">
-        <v>83211</v>
+        <v>83215</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2616,32 +2616,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130803094</v>
+        <v>130803043</v>
       </c>
       <c r="B22" t="n">
-        <v>83211</v>
+        <v>92530</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>308</v>
+        <v>3298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2651,10 +2651,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>424750</v>
+        <v>424756</v>
       </c>
       <c r="R22" t="n">
-        <v>6712387</v>
+        <v>6712113</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2713,32 +2713,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130803043</v>
+        <v>130803094</v>
       </c>
       <c r="B23" t="n">
-        <v>92526</v>
+        <v>83215</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3298</v>
+        <v>308</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>424756</v>
+        <v>424750</v>
       </c>
       <c r="R23" t="n">
-        <v>6712113</v>
+        <v>6712387</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2813,7 +2813,7 @@
         <v>130803086</v>
       </c>
       <c r="B24" t="n">
-        <v>83085</v>
+        <v>83089</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>130803097</v>
       </c>
       <c r="B25" t="n">
-        <v>83211</v>
+        <v>83215</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>130803072</v>
       </c>
       <c r="B26" t="n">
-        <v>83204</v>
+        <v>83208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>130803099</v>
       </c>
       <c r="B27" t="n">
-        <v>83211</v>
+        <v>83215</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130803037</v>
+        <v>130803087</v>
       </c>
       <c r="B28" t="n">
-        <v>83219</v>
+        <v>83089</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3213,21 +3213,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>424874</v>
+        <v>424963</v>
       </c>
       <c r="R28" t="n">
-        <v>6712082</v>
+        <v>6712072</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130803087</v>
+        <v>130803037</v>
       </c>
       <c r="B29" t="n">
-        <v>83085</v>
+        <v>83223</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3310,21 +3310,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3334,10 +3334,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>424963</v>
+        <v>424874</v>
       </c>
       <c r="R29" t="n">
-        <v>6712072</v>
+        <v>6712082</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130803080</v>
+        <v>130803079</v>
       </c>
       <c r="B30" t="n">
-        <v>83085</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3407,21 +3407,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>424918</v>
+        <v>424980</v>
       </c>
       <c r="R30" t="n">
-        <v>6712188</v>
+        <v>6712107</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130803079</v>
+        <v>130803080</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>83089</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3504,21 +3504,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>424980</v>
+        <v>424918</v>
       </c>
       <c r="R31" t="n">
-        <v>6712107</v>
+        <v>6712188</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3593,7 +3593,7 @@
         <v>130803081</v>
       </c>
       <c r="B32" t="n">
-        <v>83085</v>
+        <v>83089</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>130803098</v>
       </c>
       <c r="B33" t="n">
-        <v>83211</v>
+        <v>83215</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>130803082</v>
       </c>
       <c r="B34" t="n">
-        <v>83085</v>
+        <v>83089</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>130803095</v>
       </c>
       <c r="B35" t="n">
-        <v>83211</v>
+        <v>83215</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>130803077</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>130803078</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>130803075</v>
       </c>
       <c r="B38" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>130803100</v>
       </c>
       <c r="B39" t="n">
-        <v>83211</v>
+        <v>83215</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130803045</v>
+        <v>130803050</v>
       </c>
       <c r="B40" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -4412,7 +4412,7 @@
         <v>424768</v>
       </c>
       <c r="R40" t="n">
-        <v>6712134</v>
+        <v>6712278</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -4476,10 +4476,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130803050</v>
+        <v>130803059</v>
       </c>
       <c r="B41" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>424768</v>
+        <v>424858</v>
       </c>
       <c r="R41" t="n">
-        <v>6712278</v>
+        <v>6712137</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130803059</v>
+        <v>130803045</v>
       </c>
       <c r="B42" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>424858</v>
+        <v>424768</v>
       </c>
       <c r="R42" t="n">
-        <v>6712137</v>
+        <v>6712134</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -4699,7 +4699,7 @@
         <v>130803061</v>
       </c>
       <c r="B43" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>130803051</v>
       </c>
       <c r="B44" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4916,10 +4916,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130803046</v>
+        <v>130803058</v>
       </c>
       <c r="B45" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -4959,10 +4959,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>424910</v>
+        <v>424867</v>
       </c>
       <c r="R45" t="n">
-        <v>6712215</v>
+        <v>6712141</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130803058</v>
+        <v>130803046</v>
       </c>
       <c r="B46" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -5069,10 +5069,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>424867</v>
+        <v>424910</v>
       </c>
       <c r="R46" t="n">
-        <v>6712141</v>
+        <v>6712215</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130803052</v>
+        <v>130803049</v>
       </c>
       <c r="B47" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5179,10 +5179,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>424773</v>
+        <v>424771</v>
       </c>
       <c r="R47" t="n">
-        <v>6712133</v>
+        <v>6712443</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5246,10 +5246,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130803049</v>
+        <v>130803052</v>
       </c>
       <c r="B48" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>424771</v>
+        <v>424773</v>
       </c>
       <c r="R48" t="n">
-        <v>6712443</v>
+        <v>6712133</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -5359,7 +5359,7 @@
         <v>130803060</v>
       </c>
       <c r="B49" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>130803054</v>
       </c>
       <c r="B50" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>130803053</v>
       </c>
       <c r="B51" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5686,10 +5686,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130803047</v>
+        <v>130803044</v>
       </c>
       <c r="B52" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5729,10 +5729,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>424836</v>
+        <v>424933</v>
       </c>
       <c r="R52" t="n">
-        <v>6712286</v>
+        <v>6712156</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -5796,10 +5796,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130803044</v>
+        <v>130803047</v>
       </c>
       <c r="B53" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,10 +5839,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>424933</v>
+        <v>424836</v>
       </c>
       <c r="R53" t="n">
-        <v>6712156</v>
+        <v>6712286</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130803056</v>
+        <v>130803055</v>
       </c>
       <c r="B54" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5949,10 +5949,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>424852</v>
+        <v>424839</v>
       </c>
       <c r="R54" t="n">
-        <v>6712133</v>
+        <v>6712128</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130803055</v>
+        <v>130803056</v>
       </c>
       <c r="B55" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>424839</v>
+        <v>424852</v>
       </c>
       <c r="R55" t="n">
-        <v>6712128</v>
+        <v>6712133</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6129,7 +6129,7 @@
         <v>130803048</v>
       </c>
       <c r="B56" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>130803057</v>
       </c>
       <c r="B57" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>130848914</v>
       </c>
       <c r="B58" t="n">
-        <v>80373</v>
+        <v>80377</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>130848919</v>
       </c>
       <c r="B59" t="n">
-        <v>81224</v>
+        <v>81228</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>130848925</v>
       </c>
       <c r="B60" t="n">
-        <v>80304</v>
+        <v>80308</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130848917</v>
+        <v>130848907</v>
       </c>
       <c r="B61" t="n">
-        <v>78997</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6648,34 +6648,42 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>424590</v>
+        <v>424588</v>
       </c>
       <c r="R61" t="n">
-        <v>6712294</v>
+        <v>6712316</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -6708,6 +6716,11 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6734,10 +6747,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130848907</v>
+        <v>130848917</v>
       </c>
       <c r="B62" t="n">
-        <v>57880</v>
+        <v>79001</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6745,42 +6758,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>424588</v>
+        <v>424590</v>
       </c>
       <c r="R62" t="n">
-        <v>6712316</v>
+        <v>6712294</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -6813,11 +6818,6 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -6847,7 +6847,7 @@
         <v>130848921</v>
       </c>
       <c r="B63" t="n">
-        <v>81224</v>
+        <v>81228</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>130848915</v>
       </c>
       <c r="B64" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>130848922</v>
       </c>
       <c r="B65" t="n">
-        <v>81224</v>
+        <v>81228</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>130848929</v>
       </c>
       <c r="B66" t="n">
-        <v>78996</v>
+        <v>79000</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>130848928</v>
       </c>
       <c r="B67" t="n">
-        <v>80304</v>
+        <v>80308</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>130848927</v>
       </c>
       <c r="B68" t="n">
-        <v>80304</v>
+        <v>80308</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>130848920</v>
       </c>
       <c r="B69" t="n">
-        <v>81224</v>
+        <v>81228</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>130848926</v>
       </c>
       <c r="B70" t="n">
-        <v>80304</v>
+        <v>80308</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>130848918</v>
       </c>
       <c r="B71" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>130803063</v>
       </c>
       <c r="B72" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>130803062</v>
       </c>
       <c r="B73" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY73"/>
+  <dimension ref="A1:AY74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130803067</v>
+        <v>130803069</v>
       </c>
       <c r="B6" t="n">
-        <v>78255</v>
+        <v>81228</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228579</v>
+        <v>1049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>424814</v>
+        <v>424815</v>
       </c>
       <c r="R6" t="n">
-        <v>6712361</v>
+        <v>6712165</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803064</v>
+        <v>130803088</v>
       </c>
       <c r="B7" t="n">
-        <v>91829</v>
+        <v>83089</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,21 +1172,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5442</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424893</v>
+        <v>424964</v>
       </c>
       <c r="R7" t="n">
-        <v>6712101</v>
+        <v>6712067</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803069</v>
+        <v>130803067</v>
       </c>
       <c r="B8" t="n">
-        <v>81228</v>
+        <v>78255</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1049</v>
+        <v>228579</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424815</v>
+        <v>424814</v>
       </c>
       <c r="R8" t="n">
-        <v>6712165</v>
+        <v>6712361</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1355,32 +1355,32 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130803088</v>
+        <v>130803042</v>
       </c>
       <c r="B9" t="n">
-        <v>83089</v>
+        <v>91771</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424964</v>
+        <v>424979</v>
       </c>
       <c r="R9" t="n">
-        <v>6712067</v>
+        <v>6712092</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130803042</v>
+        <v>130803071</v>
       </c>
       <c r="B10" t="n">
-        <v>91771</v>
+        <v>91181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,21 +1463,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>5685</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>424979</v>
+        <v>424873</v>
       </c>
       <c r="R10" t="n">
-        <v>6712092</v>
+        <v>6712126</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1549,32 +1549,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130803071</v>
+        <v>130803064</v>
       </c>
       <c r="B11" t="n">
-        <v>91181</v>
+        <v>91829</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5685</v>
+        <v>5442</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>424873</v>
+        <v>424893</v>
       </c>
       <c r="R11" t="n">
-        <v>6712126</v>
+        <v>6712101</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -7935,6 +7935,103 @@
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>130849489</v>
+      </c>
+      <c r="B74" t="n">
+        <v>80349</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>424637</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6712469</v>
+      </c>
+      <c r="S74" t="n">
+        <v>20</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130803040</v>
+        <v>130803092</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>89193</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,19 +691,23 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>510</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>Cystostereum murrayi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -711,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>424793</v>
+        <v>424832</v>
       </c>
       <c r="R2" t="n">
-        <v>6712247</v>
+        <v>6712186</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -773,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130803083</v>
+        <v>130803039</v>
       </c>
       <c r="B3" t="n">
-        <v>83089</v>
+        <v>83223</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -808,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>424802</v>
+        <v>424963</v>
       </c>
       <c r="R3" t="n">
-        <v>6712148</v>
+        <v>6712076</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -870,10 +874,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130803092</v>
+        <v>130803083</v>
       </c>
       <c r="B4" t="n">
-        <v>89193</v>
+        <v>83089</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,21 +885,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>510</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -905,10 +909,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424832</v>
+        <v>424802</v>
       </c>
       <c r="R4" t="n">
-        <v>6712186</v>
+        <v>6712148</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -967,10 +971,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130803039</v>
+        <v>130803040</v>
       </c>
       <c r="B5" t="n">
-        <v>83223</v>
+        <v>91828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,23 +982,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>424963</v>
+        <v>424793</v>
       </c>
       <c r="R5" t="n">
-        <v>6712076</v>
+        <v>6712247</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1258,32 +1258,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803067</v>
+        <v>130803042</v>
       </c>
       <c r="B8" t="n">
-        <v>78255</v>
+        <v>91771</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228579</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424814</v>
+        <v>424979</v>
       </c>
       <c r="R8" t="n">
-        <v>6712361</v>
+        <v>6712092</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130803042</v>
+        <v>130803071</v>
       </c>
       <c r="B9" t="n">
-        <v>91771</v>
+        <v>91181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,21 +1366,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>5685</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424979</v>
+        <v>424873</v>
       </c>
       <c r="R9" t="n">
-        <v>6712092</v>
+        <v>6712126</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1452,32 +1452,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130803071</v>
+        <v>130803064</v>
       </c>
       <c r="B10" t="n">
-        <v>91181</v>
+        <v>91829</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5685</v>
+        <v>5442</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>424873</v>
+        <v>424893</v>
       </c>
       <c r="R10" t="n">
-        <v>6712126</v>
+        <v>6712101</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130803064</v>
+        <v>130803067</v>
       </c>
       <c r="B11" t="n">
-        <v>91829</v>
+        <v>78255</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,21 +1560,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5442</v>
+        <v>228579</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>424893</v>
+        <v>424814</v>
       </c>
       <c r="R11" t="n">
-        <v>6712101</v>
+        <v>6712361</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1840,32 +1840,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130803041</v>
+        <v>130803074</v>
       </c>
       <c r="B14" t="n">
-        <v>91771</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>424881</v>
+        <v>424801</v>
       </c>
       <c r="R14" t="n">
-        <v>6712113</v>
+        <v>6712403</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -1937,32 +1937,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130803074</v>
+        <v>130803041</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>91771</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>424801</v>
+        <v>424881</v>
       </c>
       <c r="R15" t="n">
-        <v>6712403</v>
+        <v>6712113</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130803084</v>
+        <v>130803036</v>
       </c>
       <c r="B17" t="n">
-        <v>83089</v>
+        <v>83223</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2142,21 +2142,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>424817</v>
+        <v>424756</v>
       </c>
       <c r="R17" t="n">
-        <v>6712153</v>
+        <v>6712130</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803036</v>
+        <v>130803073</v>
       </c>
       <c r="B18" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2239,21 +2239,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>424756</v>
+        <v>424873</v>
       </c>
       <c r="R18" t="n">
-        <v>6712130</v>
+        <v>6712251</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803073</v>
+        <v>130803084</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2336,21 +2336,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>424873</v>
+        <v>424817</v>
       </c>
       <c r="R19" t="n">
-        <v>6712251</v>
+        <v>6712153</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130803082</v>
+        <v>130803078</v>
       </c>
       <c r="B34" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3795,21 +3795,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>424785</v>
+        <v>424951</v>
       </c>
       <c r="R34" t="n">
-        <v>6712249</v>
+        <v>6712137</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130803077</v>
+        <v>130803082</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3989,21 +3989,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4013,10 +4013,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>424877</v>
+        <v>424785</v>
       </c>
       <c r="R36" t="n">
-        <v>6712121</v>
+        <v>6712249</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130803078</v>
+        <v>130803077</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>424951</v>
+        <v>424877</v>
       </c>
       <c r="R37" t="n">
-        <v>6712137</v>
+        <v>6712121</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130803050</v>
+        <v>130803045</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4399,7 +4399,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -4412,7 +4412,7 @@
         <v>424768</v>
       </c>
       <c r="R40" t="n">
-        <v>6712278</v>
+        <v>6712134</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130803059</v>
+        <v>130803050</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>424858</v>
+        <v>424768</v>
       </c>
       <c r="R41" t="n">
-        <v>6712137</v>
+        <v>6712278</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130803045</v>
+        <v>130803059</v>
       </c>
       <c r="B42" t="n">
         <v>57884</v>
@@ -4619,7 +4619,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>424768</v>
+        <v>424858</v>
       </c>
       <c r="R42" t="n">
-        <v>6712134</v>
+        <v>6712137</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130803058</v>
+        <v>130803046</v>
       </c>
       <c r="B45" t="n">
         <v>57884</v>
@@ -4949,7 +4949,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -4959,10 +4959,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>424867</v>
+        <v>424910</v>
       </c>
       <c r="R45" t="n">
-        <v>6712141</v>
+        <v>6712215</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130803046</v>
+        <v>130803058</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5059,7 +5059,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -5069,10 +5069,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>424910</v>
+        <v>424867</v>
       </c>
       <c r="R46" t="n">
-        <v>6712215</v>
+        <v>6712141</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130803049</v>
+        <v>130803052</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5179,10 +5179,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>424771</v>
+        <v>424773</v>
       </c>
       <c r="R47" t="n">
-        <v>6712443</v>
+        <v>6712133</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130803052</v>
+        <v>130803049</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>424773</v>
+        <v>424771</v>
       </c>
       <c r="R48" t="n">
-        <v>6712133</v>
+        <v>6712443</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130803044</v>
+        <v>130803047</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -5729,10 +5729,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>424933</v>
+        <v>424836</v>
       </c>
       <c r="R52" t="n">
-        <v>6712156</v>
+        <v>6712286</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130803047</v>
+        <v>130803044</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -5839,10 +5839,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>424836</v>
+        <v>424933</v>
       </c>
       <c r="R53" t="n">
-        <v>6712286</v>
+        <v>6712156</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130803055</v>
+        <v>130803056</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -5949,10 +5949,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>424839</v>
+        <v>424852</v>
       </c>
       <c r="R54" t="n">
-        <v>6712128</v>
+        <v>6712133</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130803056</v>
+        <v>130803055</v>
       </c>
       <c r="B55" t="n">
         <v>57884</v>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>424852</v>
+        <v>424839</v>
       </c>
       <c r="R55" t="n">
-        <v>6712133</v>
+        <v>6712128</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130848907</v>
+        <v>130848917</v>
       </c>
       <c r="B61" t="n">
-        <v>57884</v>
+        <v>79001</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6648,42 +6648,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>424588</v>
+        <v>424590</v>
       </c>
       <c r="R61" t="n">
-        <v>6712316</v>
+        <v>6712294</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -6716,11 +6708,6 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6747,10 +6734,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130848917</v>
+        <v>130848907</v>
       </c>
       <c r="B62" t="n">
-        <v>79001</v>
+        <v>57884</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6758,34 +6745,42 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>424590</v>
+        <v>424588</v>
       </c>
       <c r="R62" t="n">
-        <v>6712294</v>
+        <v>6712316</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -6818,6 +6813,11 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7426,32 +7426,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130848920</v>
+        <v>130848926</v>
       </c>
       <c r="B69" t="n">
-        <v>81228</v>
+        <v>80308</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1049</v>
+        <v>229497</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7461,10 +7461,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>424620</v>
+        <v>424630</v>
       </c>
       <c r="R69" t="n">
-        <v>6712420</v>
+        <v>6712465</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -7523,32 +7523,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130848926</v>
+        <v>130848920</v>
       </c>
       <c r="B70" t="n">
-        <v>80308</v>
+        <v>81228</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>229497</v>
+        <v>1049</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7558,10 +7558,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>424630</v>
+        <v>424620</v>
       </c>
       <c r="R70" t="n">
-        <v>6712465</v>
+        <v>6712420</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -1840,32 +1840,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130803074</v>
+        <v>130803041</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>91771</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>424801</v>
+        <v>424881</v>
       </c>
       <c r="R14" t="n">
-        <v>6712403</v>
+        <v>6712113</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -1937,32 +1937,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130803041</v>
+        <v>130803074</v>
       </c>
       <c r="B15" t="n">
-        <v>91771</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>424881</v>
+        <v>424801</v>
       </c>
       <c r="R15" t="n">
-        <v>6712113</v>
+        <v>6712403</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130803036</v>
+        <v>130803084</v>
       </c>
       <c r="B17" t="n">
-        <v>83223</v>
+        <v>83089</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2142,21 +2142,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>424756</v>
+        <v>424817</v>
       </c>
       <c r="R17" t="n">
-        <v>6712130</v>
+        <v>6712153</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803084</v>
+        <v>130803036</v>
       </c>
       <c r="B19" t="n">
-        <v>83089</v>
+        <v>83223</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2336,21 +2336,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>424817</v>
+        <v>424756</v>
       </c>
       <c r="R19" t="n">
-        <v>6712153</v>
+        <v>6712130</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130803079</v>
+        <v>130803080</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3407,21 +3407,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>424980</v>
+        <v>424918</v>
       </c>
       <c r="R30" t="n">
-        <v>6712107</v>
+        <v>6712188</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130803080</v>
+        <v>130803079</v>
       </c>
       <c r="B31" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3504,21 +3504,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>424918</v>
+        <v>424980</v>
       </c>
       <c r="R31" t="n">
-        <v>6712188</v>
+        <v>6712107</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130848917</v>
+        <v>130848907</v>
       </c>
       <c r="B61" t="n">
-        <v>79001</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6648,34 +6648,42 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>424590</v>
+        <v>424588</v>
       </c>
       <c r="R61" t="n">
-        <v>6712294</v>
+        <v>6712316</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -6708,6 +6716,11 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6734,10 +6747,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130848907</v>
+        <v>130848917</v>
       </c>
       <c r="B62" t="n">
-        <v>57884</v>
+        <v>79001</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6745,42 +6758,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>424588</v>
+        <v>424590</v>
       </c>
       <c r="R62" t="n">
-        <v>6712316</v>
+        <v>6712294</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -6813,11 +6818,6 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130803092</v>
+        <v>130803040</v>
       </c>
       <c r="B2" t="n">
-        <v>89193</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,23 +691,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -715,10 +711,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>424832</v>
+        <v>424793</v>
       </c>
       <c r="R2" t="n">
-        <v>6712186</v>
+        <v>6712247</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -777,10 +773,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130803039</v>
+        <v>130803092</v>
       </c>
       <c r="B3" t="n">
-        <v>83223</v>
+        <v>89193</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,21 +784,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>510</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -812,10 +808,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>424963</v>
+        <v>424832</v>
       </c>
       <c r="R3" t="n">
-        <v>6712076</v>
+        <v>6712186</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -971,10 +967,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130803040</v>
+        <v>130803039</v>
       </c>
       <c r="B5" t="n">
-        <v>91828</v>
+        <v>83223</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,19 +978,23 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>424793</v>
+        <v>424963</v>
       </c>
       <c r="R5" t="n">
-        <v>6712247</v>
+        <v>6712076</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130803069</v>
+        <v>130803064</v>
       </c>
       <c r="B6" t="n">
-        <v>81228</v>
+        <v>91829</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,21 +1075,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1049</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>424815</v>
+        <v>424893</v>
       </c>
       <c r="R6" t="n">
-        <v>6712165</v>
+        <v>6712101</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803088</v>
+        <v>130803069</v>
       </c>
       <c r="B7" t="n">
-        <v>83089</v>
+        <v>81228</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,21 +1172,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>1049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424964</v>
+        <v>424815</v>
       </c>
       <c r="R7" t="n">
-        <v>6712067</v>
+        <v>6712165</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130803064</v>
+        <v>130803088</v>
       </c>
       <c r="B10" t="n">
-        <v>91829</v>
+        <v>83089</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,21 +1463,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5442</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>424893</v>
+        <v>424964</v>
       </c>
       <c r="R10" t="n">
-        <v>6712101</v>
+        <v>6712067</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130803084</v>
+        <v>130803073</v>
       </c>
       <c r="B17" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2142,21 +2142,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>424817</v>
+        <v>424873</v>
       </c>
       <c r="R17" t="n">
-        <v>6712153</v>
+        <v>6712251</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803073</v>
+        <v>130803084</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2239,21 +2239,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>424873</v>
+        <v>424817</v>
       </c>
       <c r="R18" t="n">
-        <v>6712251</v>
+        <v>6712153</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130803078</v>
+        <v>130803082</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3795,21 +3795,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>424951</v>
+        <v>424785</v>
       </c>
       <c r="R34" t="n">
-        <v>6712137</v>
+        <v>6712249</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130803082</v>
+        <v>130803078</v>
       </c>
       <c r="B36" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3989,21 +3989,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4013,10 +4013,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>424785</v>
+        <v>424951</v>
       </c>
       <c r="R36" t="n">
-        <v>6712249</v>
+        <v>6712137</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130848907</v>
+        <v>130848917</v>
       </c>
       <c r="B61" t="n">
-        <v>57884</v>
+        <v>79001</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6648,42 +6648,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>424588</v>
+        <v>424590</v>
       </c>
       <c r="R61" t="n">
-        <v>6712316</v>
+        <v>6712294</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -6716,11 +6708,6 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6747,10 +6734,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130848917</v>
+        <v>130848907</v>
       </c>
       <c r="B62" t="n">
-        <v>79001</v>
+        <v>57884</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6758,34 +6745,42 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>424590</v>
+        <v>424588</v>
       </c>
       <c r="R62" t="n">
-        <v>6712294</v>
+        <v>6712316</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -6818,6 +6813,11 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7426,32 +7426,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130848926</v>
+        <v>130848920</v>
       </c>
       <c r="B69" t="n">
-        <v>80308</v>
+        <v>81228</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>229497</v>
+        <v>1049</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7461,10 +7461,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>424630</v>
+        <v>424620</v>
       </c>
       <c r="R69" t="n">
-        <v>6712465</v>
+        <v>6712420</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -7523,32 +7523,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130848920</v>
+        <v>130848926</v>
       </c>
       <c r="B70" t="n">
-        <v>81228</v>
+        <v>80308</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1049</v>
+        <v>229497</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7558,10 +7558,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>424620</v>
+        <v>424630</v>
       </c>
       <c r="R70" t="n">
-        <v>6712420</v>
+        <v>6712465</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130803040</v>
+        <v>130803083</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>83089</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,19 +691,23 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -711,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>424793</v>
+        <v>424802</v>
       </c>
       <c r="R2" t="n">
-        <v>6712247</v>
+        <v>6712148</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -870,10 +874,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130803083</v>
+        <v>130803039</v>
       </c>
       <c r="B4" t="n">
-        <v>83089</v>
+        <v>83223</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,21 +885,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -905,10 +909,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424802</v>
+        <v>424963</v>
       </c>
       <c r="R4" t="n">
-        <v>6712148</v>
+        <v>6712076</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -967,10 +971,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130803039</v>
+        <v>130803040</v>
       </c>
       <c r="B5" t="n">
-        <v>83223</v>
+        <v>91828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,23 +982,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>424963</v>
+        <v>424793</v>
       </c>
       <c r="R5" t="n">
-        <v>6712076</v>
+        <v>6712247</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130803064</v>
+        <v>130803069</v>
       </c>
       <c r="B6" t="n">
-        <v>91829</v>
+        <v>81228</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,21 +1075,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>1049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>424893</v>
+        <v>424815</v>
       </c>
       <c r="R6" t="n">
-        <v>6712101</v>
+        <v>6712165</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803069</v>
+        <v>130803088</v>
       </c>
       <c r="B7" t="n">
-        <v>81228</v>
+        <v>83089</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,21 +1172,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1049</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424815</v>
+        <v>424964</v>
       </c>
       <c r="R7" t="n">
-        <v>6712165</v>
+        <v>6712067</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130803088</v>
+        <v>130803064</v>
       </c>
       <c r="B10" t="n">
-        <v>83089</v>
+        <v>91829</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,21 +1463,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>5442</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>424964</v>
+        <v>424893</v>
       </c>
       <c r="R10" t="n">
-        <v>6712067</v>
+        <v>6712101</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1840,32 +1840,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130803041</v>
+        <v>130803074</v>
       </c>
       <c r="B14" t="n">
-        <v>91771</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>424881</v>
+        <v>424801</v>
       </c>
       <c r="R14" t="n">
-        <v>6712113</v>
+        <v>6712403</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -1937,32 +1937,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130803074</v>
+        <v>130803041</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>91771</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>424801</v>
+        <v>424881</v>
       </c>
       <c r="R15" t="n">
-        <v>6712403</v>
+        <v>6712113</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130803073</v>
+        <v>130803084</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2142,21 +2142,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>424873</v>
+        <v>424817</v>
       </c>
       <c r="R17" t="n">
-        <v>6712251</v>
+        <v>6712153</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803084</v>
+        <v>130803036</v>
       </c>
       <c r="B18" t="n">
-        <v>83089</v>
+        <v>83223</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2239,21 +2239,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>424817</v>
+        <v>424756</v>
       </c>
       <c r="R18" t="n">
-        <v>6712153</v>
+        <v>6712130</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803036</v>
+        <v>130803073</v>
       </c>
       <c r="B19" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2336,21 +2336,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>424756</v>
+        <v>424873</v>
       </c>
       <c r="R19" t="n">
-        <v>6712130</v>
+        <v>6712251</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130803080</v>
+        <v>130803079</v>
       </c>
       <c r="B30" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3407,21 +3407,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>424918</v>
+        <v>424980</v>
       </c>
       <c r="R30" t="n">
-        <v>6712188</v>
+        <v>6712107</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130803079</v>
+        <v>130803080</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3504,21 +3504,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>424980</v>
+        <v>424918</v>
       </c>
       <c r="R31" t="n">
-        <v>6712107</v>
+        <v>6712188</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130803082</v>
+        <v>130803078</v>
       </c>
       <c r="B34" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3795,21 +3795,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>424785</v>
+        <v>424951</v>
       </c>
       <c r="R34" t="n">
-        <v>6712249</v>
+        <v>6712137</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130803095</v>
+        <v>130803082</v>
       </c>
       <c r="B35" t="n">
-        <v>83215</v>
+        <v>83089</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3892,21 +3892,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>308</v>
+        <v>1312</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>424724</v>
+        <v>424785</v>
       </c>
       <c r="R35" t="n">
-        <v>6712378</v>
+        <v>6712249</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130803078</v>
+        <v>130803095</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>83215</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3989,21 +3989,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4013,10 +4013,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>424951</v>
+        <v>424724</v>
       </c>
       <c r="R36" t="n">
-        <v>6712137</v>
+        <v>6712378</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130803045</v>
+        <v>130803050</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4399,7 +4399,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -4412,7 +4412,7 @@
         <v>424768</v>
       </c>
       <c r="R40" t="n">
-        <v>6712134</v>
+        <v>6712278</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130803050</v>
+        <v>130803045</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -4509,7 +4509,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -4522,7 +4522,7 @@
         <v>424768</v>
       </c>
       <c r="R41" t="n">
-        <v>6712278</v>
+        <v>6712134</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130803046</v>
+        <v>130803058</v>
       </c>
       <c r="B45" t="n">
         <v>57884</v>
@@ -4949,7 +4949,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -4959,10 +4959,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>424910</v>
+        <v>424867</v>
       </c>
       <c r="R45" t="n">
-        <v>6712215</v>
+        <v>6712141</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130803058</v>
+        <v>130803046</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5059,7 +5059,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -5069,10 +5069,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>424867</v>
+        <v>424910</v>
       </c>
       <c r="R46" t="n">
-        <v>6712141</v>
+        <v>6712215</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130803052</v>
+        <v>130803049</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5179,10 +5179,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>424773</v>
+        <v>424771</v>
       </c>
       <c r="R47" t="n">
-        <v>6712133</v>
+        <v>6712443</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130803049</v>
+        <v>130803052</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>424771</v>
+        <v>424773</v>
       </c>
       <c r="R48" t="n">
-        <v>6712443</v>
+        <v>6712133</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130803047</v>
+        <v>130803044</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -5729,10 +5729,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>424836</v>
+        <v>424933</v>
       </c>
       <c r="R52" t="n">
-        <v>6712286</v>
+        <v>6712156</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130803044</v>
+        <v>130803047</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -5839,10 +5839,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>424933</v>
+        <v>424836</v>
       </c>
       <c r="R53" t="n">
-        <v>6712156</v>
+        <v>6712286</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130803056</v>
+        <v>130803055</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -5949,10 +5949,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>424852</v>
+        <v>424839</v>
       </c>
       <c r="R54" t="n">
-        <v>6712133</v>
+        <v>6712128</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130803055</v>
+        <v>130803056</v>
       </c>
       <c r="B55" t="n">
         <v>57884</v>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>424839</v>
+        <v>424852</v>
       </c>
       <c r="R55" t="n">
-        <v>6712128</v>
+        <v>6712133</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130848917</v>
+        <v>130848907</v>
       </c>
       <c r="B61" t="n">
-        <v>79001</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6648,34 +6648,42 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>424590</v>
+        <v>424588</v>
       </c>
       <c r="R61" t="n">
-        <v>6712294</v>
+        <v>6712316</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -6708,6 +6716,11 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6734,10 +6747,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130848907</v>
+        <v>130848917</v>
       </c>
       <c r="B62" t="n">
-        <v>57884</v>
+        <v>79001</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6745,42 +6758,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>424588</v>
+        <v>424590</v>
       </c>
       <c r="R62" t="n">
-        <v>6712316</v>
+        <v>6712294</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -6813,11 +6818,6 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7426,32 +7426,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130848920</v>
+        <v>130848926</v>
       </c>
       <c r="B69" t="n">
-        <v>81228</v>
+        <v>80308</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1049</v>
+        <v>229497</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7461,10 +7461,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>424620</v>
+        <v>424630</v>
       </c>
       <c r="R69" t="n">
-        <v>6712420</v>
+        <v>6712465</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -7523,32 +7523,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130848926</v>
+        <v>130848920</v>
       </c>
       <c r="B70" t="n">
-        <v>80308</v>
+        <v>81228</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>229497</v>
+        <v>1049</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7558,10 +7558,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>424630</v>
+        <v>424620</v>
       </c>
       <c r="R70" t="n">
-        <v>6712465</v>
+        <v>6712420</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130803083</v>
+        <v>130803039</v>
       </c>
       <c r="B2" t="n">
-        <v>83089</v>
+        <v>83223</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>424802</v>
+        <v>424963</v>
       </c>
       <c r="R2" t="n">
-        <v>6712148</v>
+        <v>6712076</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130803092</v>
+        <v>130803083</v>
       </c>
       <c r="B3" t="n">
-        <v>89193</v>
+        <v>83089</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>510</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>424832</v>
+        <v>424802</v>
       </c>
       <c r="R3" t="n">
-        <v>6712186</v>
+        <v>6712148</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130803039</v>
+        <v>130803092</v>
       </c>
       <c r="B4" t="n">
-        <v>83223</v>
+        <v>89193</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,21 +885,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6440</v>
+        <v>510</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424963</v>
+        <v>424832</v>
       </c>
       <c r="R4" t="n">
-        <v>6712076</v>
+        <v>6712186</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1161,32 +1161,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803088</v>
+        <v>130803042</v>
       </c>
       <c r="B7" t="n">
-        <v>83089</v>
+        <v>91771</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424964</v>
+        <v>424979</v>
       </c>
       <c r="R7" t="n">
-        <v>6712067</v>
+        <v>6712092</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803042</v>
+        <v>130803071</v>
       </c>
       <c r="B8" t="n">
-        <v>91771</v>
+        <v>91181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,21 +1269,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>5685</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424979</v>
+        <v>424873</v>
       </c>
       <c r="R8" t="n">
-        <v>6712092</v>
+        <v>6712126</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1355,32 +1355,32 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130803071</v>
+        <v>130803064</v>
       </c>
       <c r="B9" t="n">
-        <v>91181</v>
+        <v>91829</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5685</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424873</v>
+        <v>424893</v>
       </c>
       <c r="R9" t="n">
-        <v>6712126</v>
+        <v>6712101</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130803064</v>
+        <v>130803067</v>
       </c>
       <c r="B10" t="n">
-        <v>91829</v>
+        <v>78255</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,21 +1463,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5442</v>
+        <v>228579</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>424893</v>
+        <v>424814</v>
       </c>
       <c r="R10" t="n">
-        <v>6712101</v>
+        <v>6712361</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130803067</v>
+        <v>130803088</v>
       </c>
       <c r="B11" t="n">
-        <v>78255</v>
+        <v>83089</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,21 +1560,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228579</v>
+        <v>1312</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>424814</v>
+        <v>424964</v>
       </c>
       <c r="R11" t="n">
-        <v>6712361</v>
+        <v>6712067</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1840,32 +1840,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130803074</v>
+        <v>130803041</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>91771</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>424801</v>
+        <v>424881</v>
       </c>
       <c r="R14" t="n">
-        <v>6712403</v>
+        <v>6712113</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -1937,32 +1937,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130803041</v>
+        <v>130803074</v>
       </c>
       <c r="B15" t="n">
-        <v>91771</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>424881</v>
+        <v>424801</v>
       </c>
       <c r="R15" t="n">
-        <v>6712113</v>
+        <v>6712403</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130803065</v>
+        <v>130803036</v>
       </c>
       <c r="B16" t="n">
-        <v>91758</v>
+        <v>83223</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2045,21 +2045,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>112</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>424740</v>
+        <v>424756</v>
       </c>
       <c r="R16" t="n">
-        <v>6712346</v>
+        <v>6712130</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130803084</v>
+        <v>130803073</v>
       </c>
       <c r="B17" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2142,21 +2142,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>424817</v>
+        <v>424873</v>
       </c>
       <c r="R17" t="n">
-        <v>6712153</v>
+        <v>6712251</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803036</v>
+        <v>130803065</v>
       </c>
       <c r="B18" t="n">
-        <v>83223</v>
+        <v>91758</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2239,21 +2239,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6440</v>
+        <v>112</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>424756</v>
+        <v>424740</v>
       </c>
       <c r="R18" t="n">
-        <v>6712130</v>
+        <v>6712346</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803073</v>
+        <v>130803084</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2336,21 +2336,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>424873</v>
+        <v>424817</v>
       </c>
       <c r="R19" t="n">
-        <v>6712251</v>
+        <v>6712153</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2616,32 +2616,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130803043</v>
+        <v>130803094</v>
       </c>
       <c r="B22" t="n">
-        <v>92530</v>
+        <v>83215</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3298</v>
+        <v>308</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2651,10 +2651,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>424756</v>
+        <v>424750</v>
       </c>
       <c r="R22" t="n">
-        <v>6712113</v>
+        <v>6712387</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2713,32 +2713,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130803094</v>
+        <v>130803043</v>
       </c>
       <c r="B23" t="n">
-        <v>83215</v>
+        <v>92530</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>308</v>
+        <v>3298</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>424750</v>
+        <v>424756</v>
       </c>
       <c r="R23" t="n">
-        <v>6712387</v>
+        <v>6712113</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130803079</v>
+        <v>130803080</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3407,21 +3407,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>424980</v>
+        <v>424918</v>
       </c>
       <c r="R30" t="n">
-        <v>6712107</v>
+        <v>6712188</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130803080</v>
+        <v>130803079</v>
       </c>
       <c r="B31" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3504,21 +3504,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>424918</v>
+        <v>424980</v>
       </c>
       <c r="R31" t="n">
-        <v>6712188</v>
+        <v>6712107</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130803081</v>
+        <v>130803098</v>
       </c>
       <c r="B32" t="n">
-        <v>83089</v>
+        <v>83215</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3601,21 +3601,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1312</v>
+        <v>308</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3625,10 +3625,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>424813</v>
+        <v>424798</v>
       </c>
       <c r="R32" t="n">
-        <v>6712360</v>
+        <v>6712176</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130803098</v>
+        <v>130803081</v>
       </c>
       <c r="B33" t="n">
-        <v>83215</v>
+        <v>83089</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3698,21 +3698,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>308</v>
+        <v>1312</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3722,10 +3722,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>424798</v>
+        <v>424813</v>
       </c>
       <c r="R33" t="n">
-        <v>6712176</v>
+        <v>6712360</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130803078</v>
+        <v>130803095</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>83215</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3795,21 +3795,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>424951</v>
+        <v>424724</v>
       </c>
       <c r="R34" t="n">
-        <v>6712137</v>
+        <v>6712378</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130803095</v>
+        <v>130803077</v>
       </c>
       <c r="B36" t="n">
-        <v>83215</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3989,21 +3989,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4013,10 +4013,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>424724</v>
+        <v>424877</v>
       </c>
       <c r="R36" t="n">
-        <v>6712378</v>
+        <v>6712121</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130803077</v>
+        <v>130803078</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>424877</v>
+        <v>424951</v>
       </c>
       <c r="R37" t="n">
-        <v>6712121</v>
+        <v>6712137</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130803050</v>
+        <v>130803045</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4399,7 +4399,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -4412,7 +4412,7 @@
         <v>424768</v>
       </c>
       <c r="R40" t="n">
-        <v>6712278</v>
+        <v>6712134</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130803045</v>
+        <v>130803050</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -4509,7 +4509,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -4522,7 +4522,7 @@
         <v>424768</v>
       </c>
       <c r="R41" t="n">
-        <v>6712134</v>
+        <v>6712278</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130803058</v>
+        <v>130803046</v>
       </c>
       <c r="B45" t="n">
         <v>57884</v>
@@ -4949,7 +4949,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -4959,10 +4959,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>424867</v>
+        <v>424910</v>
       </c>
       <c r="R45" t="n">
-        <v>6712141</v>
+        <v>6712215</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130803046</v>
+        <v>130803058</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5059,7 +5059,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -5069,10 +5069,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>424910</v>
+        <v>424867</v>
       </c>
       <c r="R46" t="n">
-        <v>6712215</v>
+        <v>6712141</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130803049</v>
+        <v>130803052</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5179,10 +5179,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>424771</v>
+        <v>424773</v>
       </c>
       <c r="R47" t="n">
-        <v>6712443</v>
+        <v>6712133</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130803052</v>
+        <v>130803049</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>424773</v>
+        <v>424771</v>
       </c>
       <c r="R48" t="n">
-        <v>6712133</v>
+        <v>6712443</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130803044</v>
+        <v>130803047</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -5729,10 +5729,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>424933</v>
+        <v>424836</v>
       </c>
       <c r="R52" t="n">
-        <v>6712156</v>
+        <v>6712286</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130803047</v>
+        <v>130803044</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -5839,10 +5839,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>424836</v>
+        <v>424933</v>
       </c>
       <c r="R53" t="n">
-        <v>6712286</v>
+        <v>6712156</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130803055</v>
+        <v>130803056</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -5949,10 +5949,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>424839</v>
+        <v>424852</v>
       </c>
       <c r="R54" t="n">
-        <v>6712128</v>
+        <v>6712133</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130803056</v>
+        <v>130803055</v>
       </c>
       <c r="B55" t="n">
         <v>57884</v>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>424852</v>
+        <v>424839</v>
       </c>
       <c r="R55" t="n">
-        <v>6712133</v>
+        <v>6712128</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130803048</v>
+        <v>130803057</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -6169,10 +6169,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>424801</v>
+        <v>424935</v>
       </c>
       <c r="R56" t="n">
-        <v>6712325</v>
+        <v>6712079</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130803057</v>
+        <v>130803048</v>
       </c>
       <c r="B57" t="n">
         <v>57884</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>424935</v>
+        <v>424801</v>
       </c>
       <c r="R57" t="n">
-        <v>6712079</v>
+        <v>6712325</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -7426,32 +7426,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130848926</v>
+        <v>130848920</v>
       </c>
       <c r="B69" t="n">
-        <v>80308</v>
+        <v>81228</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>229497</v>
+        <v>1049</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7461,10 +7461,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>424630</v>
+        <v>424620</v>
       </c>
       <c r="R69" t="n">
-        <v>6712465</v>
+        <v>6712420</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -7523,32 +7523,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130848920</v>
+        <v>130848926</v>
       </c>
       <c r="B70" t="n">
-        <v>81228</v>
+        <v>80308</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1049</v>
+        <v>229497</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7558,10 +7558,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>424620</v>
+        <v>424630</v>
       </c>
       <c r="R70" t="n">
-        <v>6712420</v>
+        <v>6712465</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130803039</v>
+        <v>130803083</v>
       </c>
       <c r="B2" t="n">
-        <v>83223</v>
+        <v>83089</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>424963</v>
+        <v>424802</v>
       </c>
       <c r="R2" t="n">
-        <v>6712076</v>
+        <v>6712148</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130803083</v>
+        <v>130803092</v>
       </c>
       <c r="B3" t="n">
-        <v>83089</v>
+        <v>89193</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>510</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>424802</v>
+        <v>424832</v>
       </c>
       <c r="R3" t="n">
-        <v>6712148</v>
+        <v>6712186</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130803092</v>
+        <v>130803039</v>
       </c>
       <c r="B4" t="n">
-        <v>89193</v>
+        <v>83223</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,21 +885,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>510</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424832</v>
+        <v>424963</v>
       </c>
       <c r="R4" t="n">
-        <v>6712186</v>
+        <v>6712076</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1161,32 +1161,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803042</v>
+        <v>130803088</v>
       </c>
       <c r="B7" t="n">
-        <v>91771</v>
+        <v>83089</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424979</v>
+        <v>424964</v>
       </c>
       <c r="R7" t="n">
-        <v>6712092</v>
+        <v>6712067</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1258,32 +1258,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803071</v>
+        <v>130803067</v>
       </c>
       <c r="B8" t="n">
-        <v>91181</v>
+        <v>78255</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5685</v>
+        <v>228579</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424873</v>
+        <v>424814</v>
       </c>
       <c r="R8" t="n">
-        <v>6712126</v>
+        <v>6712361</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1355,32 +1355,32 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130803064</v>
+        <v>130803042</v>
       </c>
       <c r="B9" t="n">
-        <v>91829</v>
+        <v>91771</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424893</v>
+        <v>424979</v>
       </c>
       <c r="R9" t="n">
-        <v>6712101</v>
+        <v>6712092</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1452,32 +1452,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130803067</v>
+        <v>130803071</v>
       </c>
       <c r="B10" t="n">
-        <v>78255</v>
+        <v>91181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228579</v>
+        <v>5685</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>424814</v>
+        <v>424873</v>
       </c>
       <c r="R10" t="n">
-        <v>6712361</v>
+        <v>6712126</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130803088</v>
+        <v>130803064</v>
       </c>
       <c r="B11" t="n">
-        <v>83089</v>
+        <v>91829</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,21 +1560,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>5442</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>424964</v>
+        <v>424893</v>
       </c>
       <c r="R11" t="n">
-        <v>6712067</v>
+        <v>6712101</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1646,32 +1646,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130803085</v>
+        <v>130803066</v>
       </c>
       <c r="B12" t="n">
-        <v>83089</v>
+        <v>75221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1312</v>
+        <v>6428</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1681,10 +1681,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>424798</v>
+        <v>424814</v>
       </c>
       <c r="R12" t="n">
-        <v>6712168</v>
+        <v>6712218</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1743,32 +1743,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130803066</v>
+        <v>130803085</v>
       </c>
       <c r="B13" t="n">
-        <v>75221</v>
+        <v>83089</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6428</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>424814</v>
+        <v>424798</v>
       </c>
       <c r="R13" t="n">
-        <v>6712218</v>
+        <v>6712168</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130803080</v>
+        <v>130803079</v>
       </c>
       <c r="B30" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3407,21 +3407,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>424918</v>
+        <v>424980</v>
       </c>
       <c r="R30" t="n">
-        <v>6712188</v>
+        <v>6712107</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130803079</v>
+        <v>130803080</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3504,21 +3504,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>424980</v>
+        <v>424918</v>
       </c>
       <c r="R31" t="n">
-        <v>6712107</v>
+        <v>6712188</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130803098</v>
+        <v>130803081</v>
       </c>
       <c r="B32" t="n">
-        <v>83215</v>
+        <v>83089</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3601,21 +3601,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>308</v>
+        <v>1312</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3625,10 +3625,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>424798</v>
+        <v>424813</v>
       </c>
       <c r="R32" t="n">
-        <v>6712176</v>
+        <v>6712360</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130803081</v>
+        <v>130803098</v>
       </c>
       <c r="B33" t="n">
-        <v>83089</v>
+        <v>83215</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3698,21 +3698,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1312</v>
+        <v>308</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3722,10 +3722,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>424813</v>
+        <v>424798</v>
       </c>
       <c r="R33" t="n">
-        <v>6712360</v>
+        <v>6712176</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130803095</v>
+        <v>130803077</v>
       </c>
       <c r="B34" t="n">
-        <v>83215</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3795,21 +3795,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>424724</v>
+        <v>424877</v>
       </c>
       <c r="R34" t="n">
-        <v>6712378</v>
+        <v>6712121</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130803082</v>
+        <v>130803078</v>
       </c>
       <c r="B35" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3892,21 +3892,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>424785</v>
+        <v>424951</v>
       </c>
       <c r="R35" t="n">
-        <v>6712249</v>
+        <v>6712137</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130803077</v>
+        <v>130803082</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3989,21 +3989,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4013,10 +4013,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>424877</v>
+        <v>424785</v>
       </c>
       <c r="R36" t="n">
-        <v>6712121</v>
+        <v>6712249</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130803078</v>
+        <v>130803095</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>83215</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4086,21 +4086,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>424951</v>
+        <v>424724</v>
       </c>
       <c r="R37" t="n">
-        <v>6712137</v>
+        <v>6712378</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130803057</v>
+        <v>130803048</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -6169,10 +6169,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>424935</v>
+        <v>424801</v>
       </c>
       <c r="R56" t="n">
-        <v>6712079</v>
+        <v>6712325</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130803048</v>
+        <v>130803057</v>
       </c>
       <c r="B57" t="n">
         <v>57884</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>424801</v>
+        <v>424935</v>
       </c>
       <c r="R57" t="n">
-        <v>6712325</v>
+        <v>6712079</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130803083</v>
+        <v>130803092</v>
       </c>
       <c r="B2" t="n">
-        <v>83089</v>
+        <v>89193</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1312</v>
+        <v>510</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>424802</v>
+        <v>424832</v>
       </c>
       <c r="R2" t="n">
-        <v>6712148</v>
+        <v>6712186</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130803092</v>
+        <v>130803083</v>
       </c>
       <c r="B3" t="n">
-        <v>89193</v>
+        <v>83089</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>510</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>424832</v>
+        <v>424802</v>
       </c>
       <c r="R3" t="n">
-        <v>6712186</v>
+        <v>6712148</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130803036</v>
+        <v>130803065</v>
       </c>
       <c r="B16" t="n">
-        <v>83223</v>
+        <v>91758</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2045,21 +2045,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>112</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>424756</v>
+        <v>424740</v>
       </c>
       <c r="R16" t="n">
-        <v>6712130</v>
+        <v>6712346</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130803073</v>
+        <v>130803084</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2142,21 +2142,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>424873</v>
+        <v>424817</v>
       </c>
       <c r="R17" t="n">
-        <v>6712251</v>
+        <v>6712153</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803065</v>
+        <v>130803036</v>
       </c>
       <c r="B18" t="n">
-        <v>91758</v>
+        <v>83223</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2239,21 +2239,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>112</v>
+        <v>6440</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>424740</v>
+        <v>424756</v>
       </c>
       <c r="R18" t="n">
-        <v>6712346</v>
+        <v>6712130</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803084</v>
+        <v>130803073</v>
       </c>
       <c r="B19" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2336,21 +2336,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>424817</v>
+        <v>424873</v>
       </c>
       <c r="R19" t="n">
-        <v>6712153</v>
+        <v>6712251</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130803087</v>
+        <v>130803037</v>
       </c>
       <c r="B28" t="n">
-        <v>83089</v>
+        <v>83223</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3213,21 +3213,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>424963</v>
+        <v>424874</v>
       </c>
       <c r="R28" t="n">
-        <v>6712072</v>
+        <v>6712082</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130803037</v>
+        <v>130803087</v>
       </c>
       <c r="B29" t="n">
-        <v>83223</v>
+        <v>83089</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3310,21 +3310,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3334,10 +3334,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>424874</v>
+        <v>424963</v>
       </c>
       <c r="R29" t="n">
-        <v>6712082</v>
+        <v>6712072</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130803079</v>
+        <v>130803080</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3407,21 +3407,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>424980</v>
+        <v>424918</v>
       </c>
       <c r="R30" t="n">
-        <v>6712107</v>
+        <v>6712188</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130803080</v>
+        <v>130803079</v>
       </c>
       <c r="B31" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3504,21 +3504,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>424918</v>
+        <v>424980</v>
       </c>
       <c r="R31" t="n">
-        <v>6712188</v>
+        <v>6712107</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130803081</v>
+        <v>130803098</v>
       </c>
       <c r="B32" t="n">
-        <v>83089</v>
+        <v>83215</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3601,21 +3601,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1312</v>
+        <v>308</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3625,10 +3625,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>424813</v>
+        <v>424798</v>
       </c>
       <c r="R32" t="n">
-        <v>6712360</v>
+        <v>6712176</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130803098</v>
+        <v>130803081</v>
       </c>
       <c r="B33" t="n">
-        <v>83215</v>
+        <v>83089</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3698,21 +3698,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>308</v>
+        <v>1312</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3722,10 +3722,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>424798</v>
+        <v>424813</v>
       </c>
       <c r="R33" t="n">
-        <v>6712176</v>
+        <v>6712360</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130848907</v>
+        <v>130848917</v>
       </c>
       <c r="B61" t="n">
-        <v>57884</v>
+        <v>79001</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6648,42 +6648,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>424588</v>
+        <v>424590</v>
       </c>
       <c r="R61" t="n">
-        <v>6712316</v>
+        <v>6712294</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -6716,11 +6708,6 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6747,10 +6734,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130848917</v>
+        <v>130848907</v>
       </c>
       <c r="B62" t="n">
-        <v>79001</v>
+        <v>57884</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6758,34 +6745,42 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>424590</v>
+        <v>424588</v>
       </c>
       <c r="R62" t="n">
-        <v>6712294</v>
+        <v>6712316</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -6818,6 +6813,11 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -4366,7 +4366,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130803045</v>
+        <v>130803059</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4399,7 +4399,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -4409,10 +4409,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>424768</v>
+        <v>424858</v>
       </c>
       <c r="R40" t="n">
-        <v>6712134</v>
+        <v>6712137</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130803059</v>
+        <v>130803045</v>
       </c>
       <c r="B42" t="n">
         <v>57884</v>
@@ -4619,7 +4619,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>424858</v>
+        <v>424768</v>
       </c>
       <c r="R42" t="n">
-        <v>6712137</v>
+        <v>6712134</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130803052</v>
+        <v>130803049</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5179,10 +5179,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>424773</v>
+        <v>424771</v>
       </c>
       <c r="R47" t="n">
-        <v>6712133</v>
+        <v>6712443</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130803049</v>
+        <v>130803052</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>424771</v>
+        <v>424773</v>
       </c>
       <c r="R48" t="n">
-        <v>6712443</v>
+        <v>6712133</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130803048</v>
+        <v>130803057</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -6169,10 +6169,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>424801</v>
+        <v>424935</v>
       </c>
       <c r="R56" t="n">
-        <v>6712325</v>
+        <v>6712079</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130803057</v>
+        <v>130803048</v>
       </c>
       <c r="B57" t="n">
         <v>57884</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>424935</v>
+        <v>424801</v>
       </c>
       <c r="R57" t="n">
-        <v>6712079</v>
+        <v>6712325</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -6349,7 +6349,7 @@
         <v>130848914</v>
       </c>
       <c r="B58" t="n">
-        <v>80377</v>
+        <v>80378</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>130848919</v>
       </c>
       <c r="B59" t="n">
-        <v>81228</v>
+        <v>81229</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>130848925</v>
       </c>
       <c r="B60" t="n">
-        <v>80308</v>
+        <v>80309</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>130848917</v>
       </c>
       <c r="B61" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>130848921</v>
       </c>
       <c r="B63" t="n">
-        <v>81228</v>
+        <v>81229</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>130848915</v>
       </c>
       <c r="B64" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>130848922</v>
       </c>
       <c r="B65" t="n">
-        <v>81228</v>
+        <v>81229</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>130848929</v>
       </c>
       <c r="B66" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>130848928</v>
       </c>
       <c r="B67" t="n">
-        <v>80308</v>
+        <v>80309</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>130848927</v>
       </c>
       <c r="B68" t="n">
-        <v>80308</v>
+        <v>80309</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>130848920</v>
       </c>
       <c r="B69" t="n">
-        <v>81228</v>
+        <v>81229</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>130848926</v>
       </c>
       <c r="B70" t="n">
-        <v>80308</v>
+        <v>80309</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>130848918</v>
       </c>
       <c r="B71" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>130849489</v>
       </c>
       <c r="B74" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -4366,7 +4366,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130803059</v>
+        <v>130803045</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4399,7 +4399,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -4409,10 +4409,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>424858</v>
+        <v>424768</v>
       </c>
       <c r="R40" t="n">
-        <v>6712137</v>
+        <v>6712134</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130803045</v>
+        <v>130803059</v>
       </c>
       <c r="B42" t="n">
         <v>57884</v>
@@ -4619,7 +4619,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>424768</v>
+        <v>424858</v>
       </c>
       <c r="R42" t="n">
-        <v>6712134</v>
+        <v>6712137</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130803049</v>
+        <v>130803052</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5179,10 +5179,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>424771</v>
+        <v>424773</v>
       </c>
       <c r="R47" t="n">
-        <v>6712443</v>
+        <v>6712133</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130803052</v>
+        <v>130803049</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>424773</v>
+        <v>424771</v>
       </c>
       <c r="R48" t="n">
-        <v>6712133</v>
+        <v>6712443</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130803057</v>
+        <v>130803048</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -6169,10 +6169,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>424935</v>
+        <v>424801</v>
       </c>
       <c r="R56" t="n">
-        <v>6712079</v>
+        <v>6712325</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130803048</v>
+        <v>130803057</v>
       </c>
       <c r="B57" t="n">
         <v>57884</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>424801</v>
+        <v>424935</v>
       </c>
       <c r="R57" t="n">
-        <v>6712325</v>
+        <v>6712079</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130848917</v>
+        <v>130848907</v>
       </c>
       <c r="B61" t="n">
-        <v>79002</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6648,34 +6648,42 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>424590</v>
+        <v>424588</v>
       </c>
       <c r="R61" t="n">
-        <v>6712294</v>
+        <v>6712316</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -6708,6 +6716,11 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6734,10 +6747,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130848907</v>
+        <v>130848917</v>
       </c>
       <c r="B62" t="n">
-        <v>57884</v>
+        <v>79002</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6745,42 +6758,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>424588</v>
+        <v>424590</v>
       </c>
       <c r="R62" t="n">
-        <v>6712316</v>
+        <v>6712294</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -6813,11 +6818,6 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7038,10 +7038,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130848922</v>
+        <v>130848929</v>
       </c>
       <c r="B65" t="n">
-        <v>81229</v>
+        <v>79001</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7049,21 +7049,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1049</v>
+        <v>6446</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7073,10 +7073,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>424576</v>
+        <v>424592</v>
       </c>
       <c r="R65" t="n">
-        <v>6712311</v>
+        <v>6712413</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7135,10 +7135,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130848929</v>
+        <v>130848922</v>
       </c>
       <c r="B66" t="n">
-        <v>79001</v>
+        <v>81229</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7146,21 +7146,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6446</v>
+        <v>1049</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7170,10 +7170,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>424592</v>
+        <v>424576</v>
       </c>
       <c r="R66" t="n">
-        <v>6712413</v>
+        <v>6712311</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>

--- a/artfynd/A 1481-2026 artfynd.xlsx
+++ b/artfynd/A 1481-2026 artfynd.xlsx
@@ -7940,7 +7940,7 @@
         <v>130849489</v>
       </c>
       <c r="B74" t="n">
-        <v>80350</v>
+        <v>80351</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
